--- a/CorrectionErreur/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/CorrectionErreur/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:20:55+00:00</t>
+    <t>2024-07-11T12:30:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
